--- a/twolilol.xlsx
+++ b/twolilol.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\slemoine\privé perso\PortableGit\lenopgm\notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_5CF41FD9A179DF54952445A14B10FAE0A7942704" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0B82EE1-087D-46BB-B467-C341D7E0126C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15634" windowHeight="6257" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo next" sheetId="5" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="twolilol reste-à-faire" sheetId="4" r:id="rId5"/>
     <sheet name="addons" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LEMOINE Samuel</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="298">
   <si>
     <t>end</t>
   </si>
@@ -940,13 +941,79 @@
   </si>
   <si>
     <t>deathmist</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>hit:</t>
+  </si>
+  <si>
+    <t>cape</t>
+  </si>
+  <si>
+    <t>enchant head</t>
+  </si>
+  <si>
+    <t>enchant legs</t>
+  </si>
+  <si>
+    <t>feet: max crit = T3</t>
+  </si>
+  <si>
+    <t>legs: max crit = polarity</t>
+  </si>
+  <si>
+    <t>hands: max hp = pvp</t>
+  </si>
+  <si>
+    <t>head: max crit + hit = T3</t>
+  </si>
+  <si>
+    <t>chest: max crit + hit = T3</t>
+  </si>
+  <si>
+    <t>diff hp deathmist</t>
+  </si>
+  <si>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>ring: max crit = T3</t>
+  </si>
+  <si>
+    <t>ring2: max hp = AQ Vaulted Secret (?)</t>
+  </si>
+  <si>
+    <t>hit (need +2)</t>
+  </si>
+  <si>
+    <t>T3 head</t>
+  </si>
+  <si>
+    <t>T3 chest</t>
+  </si>
+  <si>
+    <t>T3 legs (mais -2crit)</t>
+  </si>
+  <si>
+    <t>pvp feet (mais -1 crit)</t>
+  </si>
+  <si>
+    <t>DIFF ONLY</t>
+  </si>
+  <si>
+    <t>RELATIVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,13 +1156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1199,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -1150,6 +1216,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1168,10 +1235,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1209,7 +1280,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1315,7 +1386,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1457,26 +1528,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="25.4609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>244</v>
       </c>
@@ -1490,7 +1561,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -1504,56 +1575,56 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>185</v>
       </c>
       <c r="C3" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>224</v>
       </c>
       <c r="E3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>225</v>
       </c>
       <c r="E4" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>177</v>
       </c>
       <c r="C5" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>226</v>
       </c>
       <c r="E5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>232</v>
       </c>
       <c r="D6" t="s">
@@ -1566,11 +1637,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>233</v>
       </c>
       <c r="D7" t="s">
@@ -1583,11 +1654,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>235</v>
       </c>
       <c r="D8" t="s">
@@ -1600,7 +1671,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="B9" t="s">
         <v>242</v>
       </c>
@@ -1617,14 +1688,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="B10" t="s">
         <v>238</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>248</v>
       </c>
       <c r="E10" t="s">
@@ -1634,14 +1705,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>225</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1651,14 +1722,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>239</v>
       </c>
       <c r="E12" t="s">
@@ -1668,41 +1739,41 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>250</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>261</v>
       </c>
@@ -1714,545 +1785,1651 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C1" t="s">
+    <row r="1" spans="1:15">
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0.2</v>
+      </c>
+      <c r="E1">
+        <v>0.1</v>
+      </c>
+      <c r="F1">
+        <v>0.3</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="C2" t="s">
         <v>263</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>264</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="J2" t="s">
+        <v>276</v>
+      </c>
+      <c r="M2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>184</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>22</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>23</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>35</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="H2" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="H3" s="32">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>C3*C1+D3*D1+E3*E1+F3*F1+G3*G1+H3*H1</f>
+        <v>51.1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3">
+        <v>-2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" t="s">
         <v>265</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>28</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>17</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>33</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C4">
-        <f>C2-C3</f>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>C4*C1+D4*D1+E4*E1+F4*F1+G4*G1+H4*H1</f>
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5">
+        <f>C3-C4</f>
         <v>-6</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:H4" si="0">D2-D3</f>
+      <c r="D5">
+        <f t="shared" ref="D5:H5" si="0">D3-D4</f>
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
         <v>275</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F6" s="31">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="J6">
+        <f>C6*C1+D6*D1+E6*E1+F6*F1+G6*G1+H6*H1</f>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>184</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>27</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F8" s="32">
         <v>47</v>
       </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="J8">
+        <f>C8*C1+D8*D1+E8*E1+F8*F1+G8*G1+H8*H1</f>
+        <v>47.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8">
+        <v>-6</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="O8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" t="s">
         <v>265</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>28</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>33</v>
       </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C9">
-        <f>C7-C8</f>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>C9*C1+D9*D1+E9*E1+F9*F1+G9*G1+H9*H1</f>
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="C10">
+        <f>C8-C9</f>
         <v>-7</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:H9" si="1">D7-D8</f>
+      <c r="D10">
+        <f t="shared" ref="D10:H10" si="1">D8-D9</f>
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>-6</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+    <row r="11" spans="1:15">
+      <c r="B11" t="s">
         <v>275</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>27</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="J11">
+        <f>C11*C1+D11*D1+E11*E1+F11*F1+G11*G1+H11*H1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" t="s">
         <v>184</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F13" s="32">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="J13">
+        <f>C13*C1+D13*D1+E13*E1+F13*F1+G13*G1+H13*H1</f>
+        <v>32.6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>284</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" t="s">
         <v>265</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>27</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I14" s="32" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C14">
-        <f>C12-C13</f>
+      <c r="J14">
+        <f>C14*C1+D14*D1+E14*E1+F14*F1+G14*G1+H14*H1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="C15">
+        <f>C13-C14</f>
         <v>-5</v>
       </c>
-      <c r="D14">
-        <f t="shared" ref="D14:H14" si="2">D12-D13</f>
+      <c r="D15">
+        <f t="shared" ref="D15:H15" si="2">D13-D14</f>
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="16" spans="1:15">
+      <c r="B16" t="s">
         <v>275</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
+      <c r="J16">
+        <f>C16*C1+D16*D1+E16*E1+F16*F1+G16*G1+H16*H1</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C18" s="6">
         <v>25</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>26</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" s="32">
-        <v>46</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="32">
+        <v>46</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f>C18*C1+D18*D1+E18*E1+F18*F1+G18*G1+H18*H1</f>
+        <v>45</v>
+      </c>
+      <c r="L18" t="s">
+        <v>283</v>
+      </c>
+      <c r="M18">
+        <v>-2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
         <v>30</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>C19*C1+D19*D1+E19*E1+F19*F1+G19*G1+H19*H1</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" t="s">
         <v>269</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>44</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+      <c r="J20">
+        <f>C20*C1+D20*D1+E20*E1+F20*F1+G20*G1+H20*H1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" t="s">
         <v>275</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>22</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>21</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
+      <c r="J21">
+        <f>C21*C1+D21*D1+E21*E1+F21*F1+G21*G1+H21*H1</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" t="s">
         <v>184</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>17</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>28</v>
       </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f>C23*C1+D23*D1+E23*E1+F23*F1+G23*G1+H23*H1</f>
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>282</v>
+      </c>
+      <c r="M23">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" t="s">
         <v>265</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>23</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>14</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>6</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>21</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="C24">
-        <f>C22-C23</f>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>C24*C1+D24*D1+E24*E1+F24*F1+G24*G1+H24*H1</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="O24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="C25">
+        <f>C23-C24</f>
         <v>-6</v>
       </c>
-      <c r="D24">
-        <f t="shared" ref="D24:H24" si="3">D22-D23</f>
+      <c r="D25">
+        <f t="shared" ref="D25:H25" si="3">D23-D24</f>
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+    <row r="26" spans="1:15">
+      <c r="B26" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C26" s="31">
         <v>24</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D26" s="31">
         <v>14</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
+      <c r="J26">
+        <f>C26*C1+D26*D1+E26*E1+F26*F1+G26*G1+H26*H1</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>10</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>30</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f>C28*C1+D28*D1+E28*E1+F28*F1+G28*G1+H28*H1</f>
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>289</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="B29" t="s">
         <v>270</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>6</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>37</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B29" s="1" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f>C29*C1+D29*D1+E29*E1+F29*F1+G29*G1+H29*H1</f>
+        <v>17.3</v>
+      </c>
+      <c r="L29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B30" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f>C30*C1+D30*D1+E30*E1+F30*F1+G30*G1+H30*H1</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="32">
         <v>6</v>
       </c>
-      <c r="F30">
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="F31" s="32">
         <v>22</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B31" s="1" t="s">
+      <c r="G31" s="32">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f>C31*C1+D31*D1+E31*E1+F31*F1+G31*G1+H31*H1</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C31">
+      <c r="C32" s="32">
         <v>9</v>
       </c>
-      <c r="F31">
+      <c r="F32" s="32">
         <v>18</v>
       </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B32" s="1" t="s">
+      <c r="G32" s="32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f>C32*C1+D32*D1+E32*E1+F32*F1+G32*G1+H32*H1</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>9</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>12</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>21</v>
       </c>
-      <c r="H32">
-        <v>1</v>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f>C33*C1+D33*D1+E33*E1+F33*F1+G33*G1+H33*H1</f>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" t="s">
+        <v>277</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.2</v>
+      </c>
+      <c r="E43">
+        <v>0.1</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="C44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="32">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f>C45*C43+D45*D43+E45*E43+F45*F43+G45*G43+H45*H43</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>C46*C43+D46*D43+E46*E43+F46*F43+G46*G43+H46*H43</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" s="32">
+        <v>14</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J48">
+        <f>C48*C43+D48*D43+E48*E43+F48*F43+G48*G43+H48*H43</f>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="B49" t="s">
+        <v>265</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>C49*C43+D49*D43+E49*E43+F49*F43+G49*G43+H49*H43</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51" s="32">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>C51*C43+D51*D43+E51*E43+F51*F43+G51*G43+H51*H43</f>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J52">
+        <f>C52*C43+D52*D43+E52*E43+F52*F43+G52*G43+H52*H43</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="6">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54" s="32">
+        <v>16</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f>C54*C43+D54*D43+E54*E43+F54*F43+G54*G43+H54*H43</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>C55*C43+D55*D43+E55*E43+F55*F43+G55*G43+H55*H43</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" t="s">
+        <v>269</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>14</v>
+      </c>
+      <c r="G56" s="6">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>C56*C43+D56*D43+E56*E43+F56*F43+G56*G43+H56*H43</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>C58*C43+D58*D43+E58*E43+F58*F43+G58*G43+H58*H43</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f>C59*C43+D59*D43+E59*E43+F59*F43+G59*G43+H59*H43</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>30</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f>C61*C43+D61*D43+E61*E43+F61*F43+G61*G43+H61*H43</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="B62" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C62" s="32">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="F62" s="32">
+        <v>22</v>
+      </c>
+      <c r="G62" s="32">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f>C62*C43+D62*D43+E62*E43+F62*F43+G62*G43+H62*H43</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="32">
+        <v>9</v>
+      </c>
+      <c r="F63" s="32">
+        <v>18</v>
+      </c>
+      <c r="G63" s="32">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <f>C63*C43+D63*D43+E63*E43+F63*F43+G63*G43+H63*H43</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C64">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>21</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <f>C64*C43+D64*D43+E64*E43+F64*F43+G64*G43+H64*H43</f>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0.2</v>
+      </c>
+      <c r="E67">
+        <v>0.1</v>
+      </c>
+      <c r="F67">
+        <v>0.3</v>
+      </c>
+      <c r="G67">
+        <v>7</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="C68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>208</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69">
+        <v>-6</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>-6</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="32">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <f>C69*C67+D69*D67+E69*E67+F69*F67+G69*G67+H69*H67</f>
+        <v>2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" t="s">
+        <v>265</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>-6</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>-2</v>
+      </c>
+      <c r="G70">
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>-1</v>
+      </c>
+      <c r="J70">
+        <f>C70*C67+D70*D67+E70*E67+F70*F67+G70*G67+H70*H67</f>
+        <v>-2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72">
+        <v>-7</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>-6</v>
+      </c>
+      <c r="F72" s="32">
+        <v>14</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J72">
+        <f>C72*C67+D72*D67+E72*E67+F72*F67+G72*G67+H72*H67</f>
+        <v>-1.3999999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="B73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>-10</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>-14</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>-1</v>
+      </c>
+      <c r="J73">
+        <f>C73*C67+D73*D67+E73*E67+F73*F67+G73*G67+H73*H67</f>
+        <v>1.3999999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75">
+        <v>-5</v>
+      </c>
+      <c r="D75">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75" s="32">
+        <v>9</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>C75*C67+D75*D67+E75*E67+F75*F67+G75*G67+H75*H67</f>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76" t="s">
+        <v>265</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>-7</v>
+      </c>
+      <c r="E76">
+        <v>-5</v>
+      </c>
+      <c r="F76">
+        <v>-9</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J76">
+        <f>C76*C67+D76*D67+E76*E67+F76*F67+G76*G67+H76*H67</f>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="6">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>12</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78" s="32">
+        <v>16</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f>C78*C67+D78*D67+E78*E67+F78*F67+G78*G67+H78*H67</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="B79" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f>C79*C67+D79*D67+E79*E67+F79*F67+G79*G67+H79*H67</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" s="6">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f>C80*C67+D80*D67+E80*E67+F80*F67+G80*G67+H80*H67</f>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82">
+        <v>-6</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82" s="6">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>-1</v>
+      </c>
+      <c r="J82">
+        <f>C82*C67+D82*D67+E82*E67+F82*F67+G82*G67+H82*H67</f>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83">
+        <v>-4</v>
+      </c>
+      <c r="E83">
+        <v>-4</v>
+      </c>
+      <c r="F83">
+        <v>-7</v>
+      </c>
+      <c r="G83">
+        <v>-1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <f>C83*C67+D83*D67+E83*E67+F83*F67+G83*G67+H83*H67</f>
+        <v>-4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <f>C85*C67+D85*D67+E85*E67+F85*F67+G85*G67+H85*H67</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C86" s="32">
+        <v>6</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="F86" s="32">
+        <v>22</v>
+      </c>
+      <c r="G86" s="32">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <f>C86*C67+D86*D67+E86*E67+F86*F67+G86*G67+H86*H67</f>
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="C87" s="32">
+        <v>9</v>
+      </c>
+      <c r="F87" s="32">
+        <v>18</v>
+      </c>
+      <c r="G87" s="32">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <f>C87*C67+D87*D67+E87*E67+F87*F67+G87*G67+H87*H67</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>21</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <f>C88*C67+D88*D67+E88*E67+F88*F67+G88*G67+H88*H67</f>
+        <v>17.7</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C24:H24 C14:H14 C9:H9 C4:H4 G10:H10">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C25:H25 C15:H15 C10:H10 C5:H5 G11:H11">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2263,8 +3440,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:H15">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G6:H6">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2275,8 +3452,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20:H20">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="G16:H16">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2287,8 +3464,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G21:H21">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2299,8 +3476,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:H5">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G26:H26">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2312,25 +3489,31 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" display="https://www.wowhead.com/classic/item=21836/ritssyns-ring-of-chaos"/>
-    <hyperlink ref="B30" r:id="rId2" display="https://www.wowhead.com/classic/item=20632/mindtear-band"/>
-    <hyperlink ref="B31" r:id="rId3" display="https://www.wowhead.com/classic/item=21414/band-of-vaulted-secrets"/>
-    <hyperlink ref="B32" r:id="rId4" display="https://www.wowhead.com/classic/item=19403/band-of-forced-concentration"/>
+    <hyperlink ref="B30" r:id="rId1" display="https://www.wowhead.com/classic/item=21836/ritssyns-ring-of-chaos" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B31" r:id="rId2" display="https://www.wowhead.com/classic/item=20632/mindtear-band" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B32" r:id="rId3" display="https://www.wowhead.com/classic/item=21414/band-of-vaulted-secrets" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B33" r:id="rId4" display="https://www.wowhead.com/classic/item=19403/band-of-forced-concentration" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B62" r:id="rId5" display="https://www.wowhead.com/classic/item=20632/mindtear-band" xr:uid="{9A28D9B6-8D97-4E9F-8F82-C36675749E33}"/>
+    <hyperlink ref="B63" r:id="rId6" display="https://www.wowhead.com/classic/item=21414/band-of-vaulted-secrets" xr:uid="{DE2EF5A0-877F-4470-829C-4170BF616022}"/>
+    <hyperlink ref="B64" r:id="rId7" display="https://www.wowhead.com/classic/item=19403/band-of-forced-concentration" xr:uid="{FC12C50C-19DA-49E2-99DF-B9211E0571D9}"/>
+    <hyperlink ref="B86" r:id="rId8" display="https://www.wowhead.com/classic/item=20632/mindtear-band" xr:uid="{F915DB41-3806-43E7-97F6-2ADF132DFFD3}"/>
+    <hyperlink ref="B87" r:id="rId9" display="https://www.wowhead.com/classic/item=21414/band-of-vaulted-secrets" xr:uid="{2D54446A-E7D9-4448-981B-71344EB9C97F}"/>
+    <hyperlink ref="B88" r:id="rId10" display="https://www.wowhead.com/classic/item=19403/band-of-forced-concentration" xr:uid="{6EC1007E-33E9-45A4-AF61-078F58AF4481}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17">
       <c r="B1" t="s">
         <v>213</v>
       </c>
@@ -2359,7 +3542,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -2389,14 +3572,14 @@
       <c r="L2" t="s">
         <v>184</v>
       </c>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="19" t="s">
         <v>206</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>-19</v>
       </c>
@@ -2426,14 +3609,14 @@
       <c r="M3" t="s">
         <v>205</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17">
       <c r="G4">
         <f>G2-G3</f>
         <v>19</v>
@@ -2443,21 +3626,21 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C5">
         <v>13</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <f>SUM(B5:C5)</f>
         <v>13</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>26</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <v>18</v>
       </c>
       <c r="G5">
@@ -2467,26 +3650,26 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="20" t="s">
         <v>174</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17">
       <c r="G6" s="13">
         <f>G2-G5</f>
         <v>20</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -2516,14 +3699,14 @@
       <c r="L7" t="s">
         <v>184</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>-11</v>
       </c>
@@ -2547,18 +3730,18 @@
       <c r="L8" t="s">
         <v>181</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17">
       <c r="G9">
         <f>G7-G8</f>
         <v>11</v>
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2585,11 +3768,11 @@
       <c r="L10" t="s">
         <v>184</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>-52</v>
       </c>
@@ -2620,14 +3803,14 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17">
       <c r="G12">
         <f>G10-G11</f>
         <v>52</v>
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
         <v>194</v>
       </c>
@@ -2658,7 +3841,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>-27</v>
       </c>
@@ -2676,7 +3859,6 @@
         <f>SUM(D14:F14)</f>
         <v>43</v>
       </c>
-      <c r="I14" s="16"/>
       <c r="J14">
         <v>1</v>
       </c>
@@ -2687,7 +3869,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17">
       <c r="C15">
         <v>19</v>
       </c>
@@ -2705,33 +3887,24 @@
         <f>SUM(D15:F15)</f>
         <v>59</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
       <c r="K15" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" t="s">
         <v>190</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17">
       <c r="G16" s="6">
         <f>G13-G15</f>
         <v>27</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="23"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
         <v>188</v>
       </c>
@@ -2761,11 +3934,11 @@
       <c r="L17" t="s">
         <v>184</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>-34</v>
       </c>
@@ -2796,14 +3969,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14">
       <c r="G19">
         <f>G17-G18</f>
         <v>34</v>
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14">
       <c r="A20" s="13" t="s">
         <v>185</v>
       </c>
@@ -2830,11 +4003,11 @@
       <c r="L20" t="s">
         <v>184</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>-35</v>
       </c>
@@ -2852,61 +4025,59 @@
         <f>SUM(D21:F21)</f>
         <v>47</v>
       </c>
-      <c r="I21" s="16"/>
       <c r="K21" t="s">
         <v>182</v>
       </c>
       <c r="L21" t="s">
         <v>181</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14">
       <c r="G22">
         <f>G20-G21</f>
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="20">
         <f>SUM(B23:C23)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="20">
         <v>24</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>10</v>
       </c>
       <c r="G23">
         <f>SUM(D23:F23)</f>
         <v>34</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14">
       <c r="G24" s="13">
         <f>G20-G23</f>
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14">
       <c r="A26" s="13" t="s">
         <v>177</v>
       </c>
@@ -2926,51 +4097,50 @@
       <c r="L26" t="s">
         <v>184</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:14">
+      <c r="A27" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <f>SUM(B27:C27)</f>
         <v>7</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>15</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>7</v>
       </c>
       <c r="G27">
         <f>SUM(D27:F27)</f>
         <v>29</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14">
       <c r="G28" s="13">
         <f>G26-G27</f>
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14">
       <c r="B32">
         <v>20</v>
       </c>
@@ -2987,7 +4157,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14">
       <c r="C33">
         <v>7</v>
       </c>
@@ -3004,7 +4174,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14">
       <c r="B34">
         <v>28</v>
       </c>
@@ -3018,12 +4188,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14">
       <c r="D36">
         <v>22</v>
       </c>
@@ -3034,7 +4204,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14">
       <c r="F37">
         <v>6</v>
       </c>
@@ -3046,6 +4216,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G9 G4 G12 G19 G16 G22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G9:H9 G4:H4 G12:H12 G19:H19 G22:H22 H23 H5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -3053,16 +4233,6 @@
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9 G4 G12 G19 G16 G22">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -3077,6 +4247,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3086,36 +4264,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" display="https://www.wowhead.com/classic/item=22478/bonescythe-helmet"/>
-    <hyperlink ref="N3" r:id="rId2" display="https://www.wowhead.com/classic/item=16455/field-marshals-leather-mask"/>
-    <hyperlink ref="N7" r:id="rId3" display="https://www.wowhead.com/classic/item=22479/bonescythe-pauldrons"/>
-    <hyperlink ref="N8" r:id="rId4" display="https://www.wowhead.com/classic/item=16457/field-marshals-leather-epaulets"/>
-    <hyperlink ref="N10" r:id="rId5" display="https://www.wowhead.com/classic/item=22476/bonescythe-breastplate"/>
-    <hyperlink ref="N11" r:id="rId6" display="https://www.wowhead.com/classic/item=16453/field-marshals-leather-chestpiece"/>
-    <hyperlink ref="N13" r:id="rId7" display="https://www.wowhead.com/classic/item=22481/bonescythe-gauntlets"/>
-    <hyperlink ref="N14" r:id="rId8" display="https://www.wowhead.com/classic/item=16454/marshals-leather-handgrips"/>
-    <hyperlink ref="N17" r:id="rId9" display="https://www.wowhead.com/classic/item=22477/bonescythe-legplates"/>
-    <hyperlink ref="N18" r:id="rId10" display="https://www.wowhead.com/classic/item=16456/marshals-leather-leggings"/>
-    <hyperlink ref="N20" r:id="rId11" display="https://www.wowhead.com/classic/item=22480/bonescythe-sabatons"/>
-    <hyperlink ref="N21" r:id="rId12" display="https://www.wowhead.com/classic/item=16446/marshals-leather-footguards"/>
-    <hyperlink ref="N15" r:id="rId13" display="https://www.wowhead.com/classic/item=16907/bloodfang-gloves"/>
-    <hyperlink ref="N26" r:id="rId14" display="https://www.wowhead.com/classic/item=22483/bonescythe-bracers"/>
-    <hyperlink ref="N32" r:id="rId15" display="https://retro-wow.org/item/1/18805"/>
-    <hyperlink ref="N36" r:id="rId16" display="https://retro-wow.org/item/1/17069"/>
-    <hyperlink ref="N37" r:id="rId17" display="https://retro-wow.org/item/1/17072"/>
-    <hyperlink ref="N33" r:id="rId18" display="https://retro-wow.org/item/1/21404"/>
-    <hyperlink ref="N34" r:id="rId19" display="https://retro-wow.org/item/1/19859"/>
+    <hyperlink ref="N2" r:id="rId1" display="https://www.wowhead.com/classic/item=22478/bonescythe-helmet" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="N3" r:id="rId2" display="https://www.wowhead.com/classic/item=16455/field-marshals-leather-mask" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="N7" r:id="rId3" display="https://www.wowhead.com/classic/item=22479/bonescythe-pauldrons" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="N8" r:id="rId4" display="https://www.wowhead.com/classic/item=16457/field-marshals-leather-epaulets" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="N10" r:id="rId5" display="https://www.wowhead.com/classic/item=22476/bonescythe-breastplate" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="N11" r:id="rId6" display="https://www.wowhead.com/classic/item=16453/field-marshals-leather-chestpiece" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="N13" r:id="rId7" display="https://www.wowhead.com/classic/item=22481/bonescythe-gauntlets" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="N14" r:id="rId8" display="https://www.wowhead.com/classic/item=16454/marshals-leather-handgrips" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="N17" r:id="rId9" display="https://www.wowhead.com/classic/item=22477/bonescythe-legplates" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="N18" r:id="rId10" display="https://www.wowhead.com/classic/item=16456/marshals-leather-leggings" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="N20" r:id="rId11" display="https://www.wowhead.com/classic/item=22480/bonescythe-sabatons" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="N21" r:id="rId12" display="https://www.wowhead.com/classic/item=16446/marshals-leather-footguards" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="N15" r:id="rId13" display="https://www.wowhead.com/classic/item=16907/bloodfang-gloves" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="N26" r:id="rId14" display="https://www.wowhead.com/classic/item=22483/bonescythe-bracers" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="N32" r:id="rId15" display="https://retro-wow.org/item/1/18805" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="N36" r:id="rId16" display="https://retro-wow.org/item/1/17069" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="N37" r:id="rId17" display="https://retro-wow.org/item/1/17072" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="N33" r:id="rId18" display="https://retro-wow.org/item/1/21404" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="N34" r:id="rId19" display="https://retro-wow.org/item/1/19859" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
@@ -3124,26 +4292,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10">
       <c r="J1" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10">
       <c r="J2" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +4334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -3186,7 +4354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>10</v>
       </c>
@@ -3206,11 +4374,11 @@
       <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10">
       <c r="B6" s="2">
         <f>B5-B4</f>
         <v>-6</v>
@@ -3243,33 +4411,31 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="16">
+    <row r="7" spans="1:10">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7">
         <v>35</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7">
         <f>SUM(B7:D7)</f>
         <v>59</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7">
         <v>2500</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -3289,7 +4455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>10</v>
       </c>
@@ -3305,11 +4471,11 @@
       <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="B10">
         <f>B9-B8</f>
         <v>-2</v>
@@ -3342,7 +4508,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -3362,7 +4528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="B12">
         <v>21</v>
       </c>
@@ -3378,11 +4544,11 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="B13">
         <f>B12-B11</f>
         <v>-1</v>
@@ -3415,7 +4581,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="A14" s="13" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +4601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -3458,7 +4624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="B16" s="3">
         <f>B15-B14</f>
         <v>6</v>
@@ -3491,7 +4657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10">
       <c r="B17">
         <v>21</v>
       </c>
@@ -3507,11 +4673,11 @@
       <c r="H17">
         <v>3</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10">
       <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
@@ -3534,7 +4700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -3556,11 +4722,11 @@
       <c r="I19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10">
       <c r="B20" s="3">
         <f>B19-B18</f>
         <v>6</v>
@@ -3593,7 +4759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +4782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10">
       <c r="B22">
         <v>32</v>
       </c>
@@ -3632,11 +4798,11 @@
       <c r="I22" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10">
       <c r="B23" s="4">
         <f>B22-B21</f>
         <v>5</v>
@@ -3669,7 +4835,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10">
       <c r="A24" s="13" t="s">
         <v>11</v>
       </c>
@@ -3689,7 +4855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10">
       <c r="B25">
         <v>10</v>
       </c>
@@ -3712,7 +4878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10">
       <c r="B26" s="2">
         <f>B25-B24</f>
         <v>-14</v>
@@ -3745,28 +4911,24 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="16">
+    <row r="27" spans="1:10">
+      <c r="B27">
         <v>18</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27">
         <v>19</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27">
         <v>34</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16">
+      <c r="I27">
         <v>4000</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="J27" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10">
       <c r="A28" s="13" t="s">
         <v>12</v>
       </c>
@@ -3789,7 +4951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -3816,7 +4978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10">
       <c r="B30" s="3">
         <f>B29-B28</f>
         <v>5</v>
@@ -3849,33 +5011,31 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="16">
+    <row r="31" spans="1:10">
+      <c r="B31">
         <v>19</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31">
         <v>15</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31">
         <v>37</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31">
         <f>SUM(B31:D31)</f>
         <v>71</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16">
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>7000</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="J31" s="18" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
@@ -3892,7 +5052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10">
       <c r="B33">
         <v>30</v>
       </c>
@@ -3908,11 +5068,11 @@
       <c r="I33" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="J33" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10">
       <c r="B34" s="4">
         <f>B33-B32</f>
         <v>8</v>
@@ -3944,67 +5104,62 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16">
+      <c r="D35">
         <v>19</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16">
+      <c r="I35">
         <v>2500</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10">
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10">
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10">
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10">
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10">
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10">
       <c r="J43" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10">
       <c r="J46" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10">
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10">
       <c r="J49" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10">
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10">
       <c r="J53" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>299</v>
       </c>
@@ -4012,7 +5167,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>1025</v>
       </c>
@@ -4020,7 +5175,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>2598</v>
       </c>
@@ -4028,7 +5183,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>2838</v>
       </c>
@@ -4038,19 +5193,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" display="https://www.wowhead.com/classic/fr/item=17602/coiffure-de-grand-mar%C3%A9chal"/>
-    <hyperlink ref="J15" r:id="rId2" display="https://www.wowhead.com/classic/fr/item=17604/mantelet-de-grand-mar%C3%A9chal-en-satin"/>
-    <hyperlink ref="J9" r:id="rId3" display="https://www.wowhead.com/classic/fr/item=21611/brassards-de-fouisseur"/>
-    <hyperlink ref="J29" r:id="rId4" display="https://www.wowhead.com/classic/fr/item=17608/gants-de-mar%C3%A9chal-en-satin"/>
-    <hyperlink ref="J5" r:id="rId5" display="https://www.wowhead.com/classic/fr/item=22730/corde-de-p%C3%A9doncule-cintr%C3%A9e"/>
-    <hyperlink ref="J12" r:id="rId6" display="https://www.wowhead.com/classic/fr/item=19133/jambi%C3%A8res-corrompues"/>
-    <hyperlink ref="J25" r:id="rId7" display="https://www.wowhead.com/classic/fr/item=19131/chaussures-br%C3%BBleglace"/>
-    <hyperlink ref="J33" r:id="rId8" display="https://www.wowhead.com/classic/fr/item=22799/cherche-%C3%A2me"/>
-    <hyperlink ref="J27" r:id="rId9" display="https://wowclassicdb.com/item/21600"/>
-    <hyperlink ref="J31" r:id="rId10" display="https://wowclassicdb.com/item/21585"/>
-    <hyperlink ref="J7" r:id="rId11" display="https://wowclassicdb.com/item/19400"/>
-    <hyperlink ref="J35" r:id="rId12" display="https://wowclassicdb.com/item/21603"/>
-    <hyperlink ref="J22" r:id="rId13" display="https://www.wowhead.com/classic/fr/item=23069/atours-de-n%C3%A9crochevalier"/>
+    <hyperlink ref="J19" r:id="rId1" display="https://www.wowhead.com/classic/fr/item=17602/coiffure-de-grand-mar%C3%A9chal" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J15" r:id="rId2" display="https://www.wowhead.com/classic/fr/item=17604/mantelet-de-grand-mar%C3%A9chal-en-satin" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J9" r:id="rId3" display="https://www.wowhead.com/classic/fr/item=21611/brassards-de-fouisseur" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="J29" r:id="rId4" display="https://www.wowhead.com/classic/fr/item=17608/gants-de-mar%C3%A9chal-en-satin" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="J5" r:id="rId5" display="https://www.wowhead.com/classic/fr/item=22730/corde-de-p%C3%A9doncule-cintr%C3%A9e" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="J12" r:id="rId6" display="https://www.wowhead.com/classic/fr/item=19133/jambi%C3%A8res-corrompues" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="J25" r:id="rId7" display="https://www.wowhead.com/classic/fr/item=19131/chaussures-br%C3%BBleglace" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="J33" r:id="rId8" display="https://www.wowhead.com/classic/fr/item=22799/cherche-%C3%A2me" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="J27" r:id="rId9" display="https://wowclassicdb.com/item/21600" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="J31" r:id="rId10" display="https://wowclassicdb.com/item/21585" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="J7" r:id="rId11" display="https://wowclassicdb.com/item/19400" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="J35" r:id="rId12" display="https://wowclassicdb.com/item/21603" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="J22" r:id="rId13" display="https://www.wowhead.com/classic/fr/item=23069/atours-de-n%C3%A9crochevalier" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -4058,16 +5213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4093,25 +5248,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>24</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="20">
         <v>24</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>16</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>218</v>
       </c>
       <c r="I2">
@@ -4121,11 +5276,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="26" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="B3">
         <v>30</v>
       </c>
@@ -4153,7 +5308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="B4">
         <v>20</v>
       </c>
@@ -4166,7 +5321,7 @@
       <c r="E4">
         <v>6</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>217</v>
       </c>
       <c r="I4">
@@ -4177,11 +5332,11 @@
         <f>I4-I2</f>
         <v>1</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="B5">
         <v>22</v>
       </c>
@@ -4197,7 +5352,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="27" t="s">
         <v>219</v>
       </c>
       <c r="I5">
@@ -4212,23 +5367,23 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>16</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>16</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>12</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>218</v>
       </c>
       <c r="I6">
@@ -4242,7 +5397,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="B7">
         <v>14</v>
       </c>
@@ -4255,7 +5410,7 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>217</v>
       </c>
       <c r="I7">
@@ -4266,11 +5421,11 @@
         <f>I7-I6</f>
         <v>4</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="17" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8">
         <f>SUM(B8:E8)</f>
         <v>62</v>
@@ -4295,11 +5450,11 @@
         <f>I8-I6</f>
         <v>18</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9">
         <f>SUM(B9:E9)</f>
         <v>64</v>
@@ -4331,7 +5486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="B10">
         <v>22</v>
       </c>
@@ -4356,30 +5511,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="1:12">
+      <c r="B11" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>225</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H5" r:id="rId1" display="https://www.wowhead.com/classic/fr/item=21348/tiare-de-loracle"/>
-    <hyperlink ref="H8" r:id="rId2" display="https://www.wowhead.com/classic/fr/item=19370/mantelet-de-la-cabale-de-laile-noire"/>
+    <hyperlink ref="H5" r:id="rId1" display="https://www.wowhead.com/classic/fr/item=21348/tiare-de-loracle" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://www.wowhead.com/classic/fr/item=19370/mantelet-de-la-cabale-de-laile-noire" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -4387,28 +5542,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
@@ -4421,7 +5576,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -4435,7 +5590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -4452,7 +5607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -4466,7 +5621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -4483,7 +5638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -4500,7 +5655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -4514,7 +5669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -4531,7 +5686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>151</v>
       </c>
@@ -4545,7 +5700,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -4562,7 +5717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -4582,7 +5737,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -4599,7 +5754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -4616,7 +5771,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -4630,7 +5785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -4644,7 +5799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -4661,7 +5816,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>151</v>
       </c>
@@ -4681,7 +5836,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -4695,7 +5850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -4709,7 +5864,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>141</v>
       </c>
@@ -4723,7 +5878,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -4740,7 +5895,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -4757,7 +5912,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -4774,7 +5929,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>151</v>
       </c>
@@ -4791,7 +5946,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4808,7 +5963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -4825,7 +5980,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -4839,7 +5994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4856,7 +6011,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -4873,7 +6028,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -4890,7 +6045,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -4907,7 +6062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -4921,7 +6076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -4935,7 +6090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5">
       <c r="A37" s="9" t="s">
         <v>151</v>
       </c>
@@ -4949,7 +6104,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -4966,7 +6121,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -4983,7 +6138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -5000,7 +6155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -5014,7 +6169,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -5025,7 +6180,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -5036,7 +6191,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -5047,7 +6202,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -5060,10 +6215,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F12" r:id="rId2"/>
-    <hyperlink ref="B1" r:id="rId3"/>
-    <hyperlink ref="F18" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="F12" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/twolilol.xlsx
+++ b/twolilol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://groupevsc-my.sharepoint.com/personal/samuel_lemoine_ext_connect-tech_sncf/Documents/privé/perso/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="11_5CF41FD9A179DF54952445A14B10FAE0A7942704" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0B82EE1-087D-46BB-B467-C341D7E0126C}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="11_5CF41FD9A179DF54952445A14B10FAE0A7942704" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0E5E736-4F02-4D52-AA86-E00111ED3248}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="313">
   <si>
     <t>end</t>
   </si>
@@ -973,9 +973,6 @@
     <t>head: max crit + hit = T3</t>
   </si>
   <si>
-    <t>chest: max crit + hit = T3</t>
-  </si>
-  <si>
     <t>diff hp deathmist</t>
   </si>
   <si>
@@ -985,9 +982,6 @@
     <t>ring: max crit = T3</t>
   </si>
   <si>
-    <t>ring2: max hp = AQ Vaulted Secret (?)</t>
-  </si>
-  <si>
     <t>hit (need +2)</t>
   </si>
   <si>
@@ -1007,6 +1001,57 @@
   </si>
   <si>
     <t>RELATIVE</t>
+  </si>
+  <si>
+    <t>Seal of the Damned</t>
+  </si>
+  <si>
+    <t>seal of the damned</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>head T3</t>
+  </si>
+  <si>
+    <t>chest: max hp = pvp</t>
+  </si>
+  <si>
+    <t>ring2: max hp = seal of the damned</t>
+  </si>
+  <si>
+    <t>100hp/chest</t>
+  </si>
+  <si>
+    <t>9end/bracers</t>
+  </si>
+  <si>
+    <t>16end/shoulders</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 15k</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 20k</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 1000pvp</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 20k (ok?)</t>
+  </si>
+  <si>
+    <t>free w/ Mak*</t>
+  </si>
+  <si>
+    <t>100pv/chest free w/ Mak*</t>
+  </si>
+  <si>
+    <t>30spell/2H &lt;&lt; 10k</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1102,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1166,8 +1211,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1175,12 +1232,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1217,6 +1354,24 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1240,9 +1395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1280,7 +1435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1386,7 +1541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1528,7 +1683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1786,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1820,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="O1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1846,7 +2001,7 @@
         <v>276</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1882,7 +2037,7 @@
         <v>-2</v>
       </c>
       <c r="O3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1983,16 +2138,16 @@
         <v>47.5</v>
       </c>
       <c r="L8" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="M8">
-        <v>-6</v>
+        <v>1</v>
       </c>
       <c r="N8" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2094,7 +2249,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C14">
@@ -2195,7 +2350,7 @@
         <v>-2</v>
       </c>
       <c r="O18" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2223,7 +2378,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="B20" t="s">
+      <c r="B20" s="34" t="s">
         <v>269</v>
       </c>
       <c r="C20">
@@ -2318,7 +2473,7 @@
         <v>32.700000000000003</v>
       </c>
       <c r="O24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2370,7 +2525,7 @@
       <c r="A28" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="34" t="s">
         <v>184</v>
       </c>
       <c r="C28">
@@ -2390,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="L28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -2417,7 +2572,10 @@
         <v>17.3</v>
       </c>
       <c r="L29" t="s">
-        <v>290</v>
+        <v>301</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2458,6 +2616,12 @@
         <f>C31*C1+D31*D1+E31*E1+F31*F1+G31*G1+H31*H1</f>
         <v>20.8</v>
       </c>
+      <c r="L31" t="s">
+        <v>302</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
       <c r="B32" s="33" t="s">
@@ -2476,8 +2640,14 @@
         <f>C32*C1+D32*D1+E32*E1+F32*F1+G32*G1+H32*H1</f>
         <v>21.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="L32" t="s">
+        <v>303</v>
+      </c>
+      <c r="M32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="B33" s="1" t="s">
         <v>274</v>
       </c>
@@ -2497,8 +2667,39 @@
         <f>C33*C1+D33*D1+E33*E1+F33*F1+G33*G1+H33*H1</f>
         <v>17.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="F34">
+        <v>21</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f>C34*C1+D34*D1+E34*E1+F34*F1+G34*G1+H34*H1</f>
+        <v>30.3</v>
+      </c>
+      <c r="M34">
+        <f>SUM(M3:M33)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -2509,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:14">
       <c r="B38" t="s">
         <v>280</v>
       </c>
@@ -2517,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:14">
       <c r="B39" t="s">
         <v>281</v>
       </c>
@@ -2525,906 +2726,776 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>296</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="40" spans="1:14">
+      <c r="B40" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="B41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="43" spans="1:14">
+      <c r="A43" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B43" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="39">
+        <v>1</v>
+      </c>
+      <c r="D43" s="39">
         <v>0.2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="39">
         <v>0.1</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="39">
         <v>0.3</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="39">
         <v>7</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="C44" t="s">
+      <c r="H43" s="39">
+        <v>0</v>
+      </c>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="M43" t="s">
+        <v>303</v>
+      </c>
+      <c r="N43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="41"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J44" t="s">
+      <c r="I44" s="35"/>
+      <c r="J44" s="42" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
+      <c r="M44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="35">
+        <v>0</v>
+      </c>
+      <c r="D45" s="35">
         <v>6</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="35">
         <v>2</v>
       </c>
-      <c r="G45" s="6">
-        <v>1</v>
-      </c>
-      <c r="H45" s="32">
-        <v>1</v>
-      </c>
-      <c r="J45">
+      <c r="G45" s="36">
+        <v>1</v>
+      </c>
+      <c r="H45" s="37">
+        <v>1</v>
+      </c>
+      <c r="I45" s="35"/>
+      <c r="J45" s="42">
         <f>C45*C43+D45*D43+E45*E43+F45*F43+G45*G43+H45*H43</f>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="B46" t="s">
+      <c r="L45" t="s">
+        <v>309</v>
+      </c>
+      <c r="M45" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="41"/>
+      <c r="B46" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="35">
         <v>6</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="35">
+        <v>0</v>
+      </c>
+      <c r="E46" s="35">
         <v>6</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="J46">
+      <c r="F46" s="35">
+        <v>0</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="35">
+        <v>0</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="42">
         <f>C46*C43+D46*D43+E46*E43+F46*F43+G46*G43+H46*H43</f>
         <v>6.6</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
+    <row r="47" spans="1:14">
+      <c r="A47" s="41"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="42"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="35">
+        <v>0</v>
+      </c>
+      <c r="D48" s="35">
         <v>10</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="32">
+      <c r="E48" s="35">
+        <v>0</v>
+      </c>
+      <c r="F48" s="37">
         <v>14</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48" s="32" t="s">
+      <c r="G48" s="35">
+        <v>0</v>
+      </c>
+      <c r="H48" s="35">
+        <v>1</v>
+      </c>
+      <c r="I48" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="42">
         <f>C48*C43+D48*D43+E48*E43+F48*F43+G48*G43+H48*H43</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="B49" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="41"/>
+      <c r="B49" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="49">
         <v>7</v>
       </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="35">
+        <v>0</v>
+      </c>
+      <c r="E49" s="35">
         <v>6</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="J49">
+      <c r="F49" s="35">
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0</v>
+      </c>
+      <c r="H49" s="35">
+        <v>0</v>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="42">
         <f>C49*C43+D49*D43+E49*E43+F49*F43+G49*G43+H49*H43</f>
         <v>7.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
+      <c r="L49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="41"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="42"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
+      <c r="C51" s="35">
+        <v>0</v>
+      </c>
+      <c r="D51" s="35">
         <v>7</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="35">
         <v>5</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="37">
         <v>9</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="G51" s="35">
+        <v>0</v>
+      </c>
+      <c r="H51" s="35">
+        <v>0</v>
+      </c>
+      <c r="I51" s="35"/>
+      <c r="J51" s="42">
         <f>C51*C43+D51*D43+E51*E43+F51*F43+G51*G43+H51*H43</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="B52" t="s">
+    <row r="52" spans="1:12">
+      <c r="A52" s="41"/>
+      <c r="B52" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="48">
         <v>5</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="32" t="s">
+      <c r="D52" s="35">
+        <v>0</v>
+      </c>
+      <c r="E52" s="35">
+        <v>0</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0</v>
+      </c>
+      <c r="G52" s="35">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
+        <v>0</v>
+      </c>
+      <c r="I52" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="42">
         <f>C52*C43+D52*D43+E52*E43+F52*F43+G52*G43+H52*H43</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="L52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="41"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="42"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="6">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <v>12</v>
-      </c>
-      <c r="E54">
+      <c r="C54" s="35">
+        <v>0</v>
+      </c>
+      <c r="D54" s="35">
+        <v>4</v>
+      </c>
+      <c r="E54" s="35">
+        <v>4</v>
+      </c>
+      <c r="F54" s="35">
+        <v>7</v>
+      </c>
+      <c r="G54" s="36">
+        <v>1</v>
+      </c>
+      <c r="H54" s="35">
+        <v>0</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="42">
+        <f>C54*C43+D54*D43+E54*E43+F54*F43+G54*G43+H54*H43</f>
+        <v>10.3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="41"/>
+      <c r="B55" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" s="35">
+        <v>6</v>
+      </c>
+      <c r="D55" s="35">
+        <v>0</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0</v>
+      </c>
+      <c r="F55" s="35">
+        <v>0</v>
+      </c>
+      <c r="G55" s="35">
+        <v>0</v>
+      </c>
+      <c r="H55" s="35">
+        <v>1</v>
+      </c>
+      <c r="I55" s="35"/>
+      <c r="J55" s="42">
+        <f>C55*C43+D55*D43+E55*E43+F55*F43+G55*G43+H55*H43</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="41"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="42"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="35">
         <v>10</v>
       </c>
-      <c r="F54" s="32">
-        <v>16</v>
-      </c>
-      <c r="G54" s="13">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <f>C54*C43+D54*D43+E54*E43+F54*F43+G54*G43+H54*H43</f>
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="B55" t="s">
-        <v>265</v>
-      </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
+      <c r="D57" s="35">
         <v>10</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f>C55*C43+D55*D43+E55*E43+F55*F43+G55*G43+H55*H43</f>
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="B56" t="s">
-        <v>269</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>14</v>
-      </c>
-      <c r="G56" s="6">
+      <c r="E57" s="35"/>
+      <c r="F57" s="35">
+        <v>30</v>
+      </c>
+      <c r="G57" s="36">
+        <v>1</v>
+      </c>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="42">
+        <f>C57*C43+D57*D43+E57*E43+F57*F43+G57*G43+H57*H43</f>
+        <v>28</v>
+      </c>
+      <c r="L57" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A58" s="44"/>
+      <c r="B58" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="46">
+        <v>17</v>
+      </c>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46">
+        <v>21</v>
+      </c>
+      <c r="G58" s="46">
+        <v>1</v>
+      </c>
+      <c r="H58" s="46">
+        <v>1</v>
+      </c>
+      <c r="I58" s="46"/>
+      <c r="J58" s="47"/>
+      <c r="L58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.2</v>
+      </c>
+      <c r="E60">
+        <v>0.1</v>
+      </c>
+      <c r="F60">
+        <v>0.3</v>
+      </c>
+      <c r="G60">
+        <v>7</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="C61" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" t="s">
         <v>2</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <f>C56*C43+D56*D43+E56*E43+F56*F43+G56*G43+H56*H43</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="G61" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
         <v>184</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
-      </c>
-      <c r="F58">
-        <v>7</v>
-      </c>
-      <c r="G58" s="6">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <f>C58*C43+D58*D43+E58*E43+F58*F43+G58*G43+H58*H43</f>
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="B59" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <f>C59*C43+D59*D43+E59*E43+F59*F43+G59*G43+H59*H43</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
-      </c>
-      <c r="F61">
-        <v>30</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <f>C61*C43+D61*D43+E61*E43+F61*F43+G61*G43+H61*H43</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C62" s="32">
-        <v>6</v>
+      <c r="C62">
+        <v>-6</v>
       </c>
       <c r="D62">
         <v>6</v>
       </c>
-      <c r="F62" s="32">
-        <v>22</v>
-      </c>
-      <c r="G62" s="32">
+      <c r="E62">
+        <v>-6</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" s="6">
+        <v>1</v>
+      </c>
+      <c r="H62" s="32">
         <v>1</v>
       </c>
       <c r="J62">
-        <f>C62*C43+D62*D43+E62*E43+F62*F43+G62*G43+H62*H43</f>
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="B63" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C63" s="32">
+        <f>C62*C60+D62*D60+E62*E60+F62*F60+G62*G60+H62*H60</f>
+        <v>2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>-6</v>
+      </c>
+      <c r="E63">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>-2</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+      <c r="H63">
+        <v>-1</v>
+      </c>
+      <c r="J63">
+        <f>C63*C60+D63*D60+E63*E60+F63*F60+G63*G60+H63*H60</f>
+        <v>-2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65">
+        <v>-7</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>-6</v>
+      </c>
+      <c r="F65" s="32">
+        <v>14</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="J65">
+        <f>C65*C60+D65*D60+E65*E60+F65*F60+G65*G60+H65*H60</f>
+        <v>-1.3999999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="B66" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>-10</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>-14</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>-1</v>
+      </c>
+      <c r="J66">
+        <f>C66*C60+D66*D60+E66*E60+F66*F60+G66*G60+H66*H60</f>
+        <v>1.3999999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68">
+        <v>-5</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68" s="32">
         <v>9</v>
       </c>
-      <c r="F63" s="32">
-        <v>18</v>
-      </c>
-      <c r="G63" s="32">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <f>C63*C43+D63*D43+E63*E43+F63*F43+G63*G43+H63*H43</f>
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="B64" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C64">
-        <v>9</v>
-      </c>
-      <c r="D64">
-        <v>12</v>
-      </c>
-      <c r="F64">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>C68*C60+D68*D60+E68*E60+F68*F60+G68*G60+H68*H60</f>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>-7</v>
+      </c>
+      <c r="E69">
+        <v>-5</v>
+      </c>
+      <c r="F69">
+        <v>-9</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J69">
+        <f>C69*C60+D69*D60+E69*E60+F69*F60+G69*G60+H69*H60</f>
+        <v>0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71">
+        <v>-6</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>-1</v>
+      </c>
+      <c r="J71">
+        <f>C71*C60+D71*D60+E71*E60+F71*F60+G71*G60+H71*H60</f>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>-4</v>
+      </c>
+      <c r="E72">
+        <v>-4</v>
+      </c>
+      <c r="F72">
+        <v>-7</v>
+      </c>
+      <c r="G72">
+        <v>-1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f>C72*C60+D72*D60+E72*E60+F72*F60+G72*G60+H72*H60</f>
+        <v>-4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f>C74*C60+D74*D60+E74*E60+F74*F60+G74*G60+H74*H60</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75">
+        <v>17</v>
+      </c>
+      <c r="F75">
         <v>21</v>
       </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <f>C64*C43+D64*D43+E64*E43+F64*F43+G64*G43+H64*H43</f>
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>297</v>
-      </c>
-      <c r="B67" t="s">
-        <v>277</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0.2</v>
-      </c>
-      <c r="E67">
-        <v>0.1</v>
-      </c>
-      <c r="F67">
-        <v>0.3</v>
-      </c>
-      <c r="G67">
-        <v>7</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="C68" t="s">
-        <v>263</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>264</v>
-      </c>
-      <c r="F68" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" t="s">
-        <v>208</v>
-      </c>
-      <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-      <c r="C69">
-        <v>-6</v>
-      </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="E69">
-        <v>-6</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69" s="6">
-        <v>1</v>
-      </c>
-      <c r="H69" s="32">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <f>C69*C67+D69*D67+E69*E67+F69*F67+G69*G67+H69*H67</f>
-        <v>2.1999999999999993</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="B70" t="s">
-        <v>265</v>
-      </c>
-      <c r="C70">
-        <v>6</v>
-      </c>
-      <c r="D70">
-        <v>-6</v>
-      </c>
-      <c r="E70">
-        <v>6</v>
-      </c>
-      <c r="F70">
-        <v>-2</v>
-      </c>
-      <c r="G70">
-        <v>-1</v>
-      </c>
-      <c r="H70">
-        <v>-1</v>
-      </c>
-      <c r="J70">
-        <f>C70*C67+D70*D67+E70*E67+F70*F67+G70*G67+H70*H67</f>
-        <v>-2.1999999999999993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>184</v>
-      </c>
-      <c r="C72">
-        <v>-7</v>
-      </c>
-      <c r="D72">
-        <v>10</v>
-      </c>
-      <c r="E72">
-        <v>-6</v>
-      </c>
-      <c r="F72" s="32">
-        <v>14</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="J72">
-        <f>C72*C67+D72*D67+E72*E67+F72*F67+G72*G67+H72*H67</f>
-        <v>-1.3999999999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="B73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73">
-        <v>7</v>
-      </c>
-      <c r="D73">
-        <v>-10</v>
-      </c>
-      <c r="E73">
-        <v>6</v>
-      </c>
-      <c r="F73">
-        <v>-14</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>-1</v>
-      </c>
-      <c r="J73">
-        <f>C73*C67+D73*D67+E73*E67+F73*F67+G73*G67+H73*H67</f>
-        <v>1.3999999999999995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75">
-        <v>-5</v>
-      </c>
-      <c r="D75">
-        <v>7</v>
-      </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
-      <c r="F75" s="32">
-        <v>9</v>
-      </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <f>C75*C67+D75*D67+E75*E67+F75*F67+G75*G67+H75*H67</f>
-        <v>-0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76">
-        <v>-7</v>
-      </c>
-      <c r="E76">
-        <v>-5</v>
-      </c>
-      <c r="F76">
-        <v>-9</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="J76">
-        <f>C76*C67+D76*D67+E76*E67+F76*F67+G76*G67+H76*H67</f>
-        <v>0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>188</v>
-      </c>
-      <c r="B78" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="6">
-        <v>5</v>
-      </c>
-      <c r="D78">
-        <v>12</v>
-      </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
-      <c r="F78" s="32">
-        <v>16</v>
-      </c>
-      <c r="G78" s="13">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <f>C78*C67+D78*D67+E78*E67+F78*F67+G78*G67+H78*H67</f>
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="B79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79">
-        <v>6</v>
-      </c>
-      <c r="D79">
-        <v>6</v>
-      </c>
-      <c r="E79">
-        <v>10</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <f>C79*C67+D79*D67+E79*E67+F79*F67+G79*G67+H79*H67</f>
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="B80" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>14</v>
-      </c>
-      <c r="G80" s="6">
-        <v>2</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <f>C80*C67+D80*D67+E80*E67+F80*F67+G80*G67+H80*H67</f>
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
-        <v>185</v>
-      </c>
-      <c r="B82" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82">
-        <v>-6</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82">
-        <v>4</v>
-      </c>
-      <c r="F82">
-        <v>7</v>
-      </c>
-      <c r="G82" s="6">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>-1</v>
-      </c>
-      <c r="J82">
-        <f>C82*C67+D82*D67+E82*E67+F82*F67+G82*G67+H82*H67</f>
-        <v>4.3000000000000007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="B83" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-      <c r="D83">
-        <v>-4</v>
-      </c>
-      <c r="E83">
-        <v>-4</v>
-      </c>
-      <c r="F83">
-        <v>-7</v>
-      </c>
-      <c r="G83">
-        <v>-1</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <f>C83*C67+D83*D67+E83*E67+F83*F67+G83*G67+H83*H67</f>
-        <v>-4.3000000000000007</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C85">
-        <v>10</v>
-      </c>
-      <c r="D85">
-        <v>10</v>
-      </c>
-      <c r="F85">
-        <v>30</v>
-      </c>
-      <c r="G85" s="6">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <f>C85*C67+D85*D67+E85*E67+F85*F67+G85*G67+H85*H67</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="B86" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="32">
-        <v>6</v>
-      </c>
-      <c r="D86">
-        <v>6</v>
-      </c>
-      <c r="F86" s="32">
-        <v>22</v>
-      </c>
-      <c r="G86" s="32">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <f>C86*C67+D86*D67+E86*E67+F86*F67+G86*G67+H86*H67</f>
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="C87" s="32">
-        <v>9</v>
-      </c>
-      <c r="F87" s="32">
-        <v>18</v>
-      </c>
-      <c r="G87" s="32">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <f>C87*C67+D87*D67+E87*E67+F87*F67+G87*G67+H87*H67</f>
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88">
-        <v>9</v>
-      </c>
-      <c r="D88">
-        <v>12</v>
-      </c>
-      <c r="F88">
-        <v>21</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <f>C88*C67+D88*D67+E88*E67+F88*F67+G88*G67+H88*H67</f>
-        <v>17.7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3493,15 +3564,9 @@
     <hyperlink ref="B31" r:id="rId2" display="https://www.wowhead.com/classic/item=20632/mindtear-band" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
     <hyperlink ref="B32" r:id="rId3" display="https://www.wowhead.com/classic/item=21414/band-of-vaulted-secrets" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
     <hyperlink ref="B33" r:id="rId4" display="https://www.wowhead.com/classic/item=19403/band-of-forced-concentration" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B62" r:id="rId5" display="https://www.wowhead.com/classic/item=20632/mindtear-band" xr:uid="{9A28D9B6-8D97-4E9F-8F82-C36675749E33}"/>
-    <hyperlink ref="B63" r:id="rId6" display="https://www.wowhead.com/classic/item=21414/band-of-vaulted-secrets" xr:uid="{DE2EF5A0-877F-4470-829C-4170BF616022}"/>
-    <hyperlink ref="B64" r:id="rId7" display="https://www.wowhead.com/classic/item=19403/band-of-forced-concentration" xr:uid="{FC12C50C-19DA-49E2-99DF-B9211E0571D9}"/>
-    <hyperlink ref="B86" r:id="rId8" display="https://www.wowhead.com/classic/item=20632/mindtear-band" xr:uid="{F915DB41-3806-43E7-97F6-2ADF132DFFD3}"/>
-    <hyperlink ref="B87" r:id="rId9" display="https://www.wowhead.com/classic/item=21414/band-of-vaulted-secrets" xr:uid="{2D54446A-E7D9-4448-981B-71344EB9C97F}"/>
-    <hyperlink ref="B88" r:id="rId10" display="https://www.wowhead.com/classic/item=19403/band-of-forced-concentration" xr:uid="{6EC1007E-33E9-45A4-AF61-078F58AF4481}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
